--- a/data/trans_orig/IP16A09-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A09-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AD44830-FA33-4519-9265-4D17A376207A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC92473B-CB75-4CF3-B013-A061C12D7F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{E880FDA0-30CB-46A3-A712-164FC0870902}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{70EB89B0-AF44-495E-AC75-928AD2C68163}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,21 +67,84 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>96,96%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>97,49%</t>
   </si>
   <si>
@@ -94,15 +157,6 @@
     <t>95,53%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
     <t>3,04%</t>
   </si>
   <si>
@@ -118,37 +172,61 @@
     <t>4,47%</t>
   </si>
   <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -196,84 +274,6 @@
     <t>8,94%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
     <t>97,73%</t>
   </si>
   <si>
@@ -331,6 +331,48 @@
     <t>Menores según si ha consumido medicamentos para los vómitos en 2012 (Tasa respuesta: 25,73%)</t>
   </si>
   <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
     <t>93,35%</t>
   </si>
   <si>
@@ -367,34 +409,46 @@
     <t>6,5%</t>
   </si>
   <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
   </si>
   <si>
     <t>95,87%</t>
@@ -445,60 +499,6 @@
     <t>6,49%</t>
   </si>
   <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
     <t>97,08%</t>
   </si>
   <si>
@@ -550,6 +550,54 @@
     <t>Menores según si ha consumido medicamentos para los vómitos en 2015 (Tasa respuesta: 21,64%)</t>
   </si>
   <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
     <t>97,45%</t>
   </si>
   <si>
@@ -580,34 +628,52 @@
     <t>3,25%</t>
   </si>
   <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
   </si>
   <si>
     <t>96,39%</t>
@@ -626,72 +692,6 @@
   </si>
   <si>
     <t>1,71%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
   </si>
   <si>
     <t>98,11%</t>
@@ -1137,7 +1137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9275388E-E9E4-4A9F-B4E2-D60EFDB4DBA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1C7B34-C451-4CD1-8726-439309DC8AB0}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1255,10 +1255,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>41306</v>
+        <v>4787</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1270,40 +1270,40 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I4" s="7">
-        <v>40600</v>
+        <v>9694</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>18</v>
+      </c>
+      <c r="N4" s="7">
+        <v>14481</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="7">
-        <v>127</v>
-      </c>
-      <c r="N4" s="7">
-        <v>81905</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1312,43 +1312,43 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1047</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="7">
-        <v>2</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1047</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1357,10 +1357,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>41306</v>
+        <v>4787</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -1372,10 +1372,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I6" s="7">
-        <v>41647</v>
+        <v>9694</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -1387,10 +1387,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="N6" s="7">
-        <v>82952</v>
+        <v>14481</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -1404,7 +1404,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1419,7 +1419,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -1431,10 +1431,10 @@
         <v>22526</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
@@ -1446,10 +1446,10 @@
         <v>46413</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -1458,7 +1458,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1467,13 +1467,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -1482,13 +1482,13 @@
         <v>598</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -1497,13 +1497,13 @@
         <v>598</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1559,106 +1559,106 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D10" s="7">
-        <v>37482</v>
+        <v>41306</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="I10" s="7">
-        <v>24884</v>
+        <v>40600</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="N10" s="7">
-        <v>62366</v>
+        <v>81905</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="7">
+      <c r="G11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="7">
         <v>2</v>
       </c>
-      <c r="D11" s="7">
-        <v>1335</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
       <c r="I11" s="7">
-        <v>793</v>
+        <v>1047</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>2128</v>
+        <v>1047</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1667,10 +1667,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D12" s="7">
-        <v>38817</v>
+        <v>41306</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1682,10 +1682,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="I12" s="7">
-        <v>25677</v>
+        <v>41647</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1697,10 +1697,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="N12" s="7">
-        <v>64494</v>
+        <v>82952</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1714,106 +1714,106 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D13" s="7">
-        <v>4787</v>
+        <v>33186</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="7">
+        <v>37</v>
+      </c>
+      <c r="I13" s="7">
+        <v>22404</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" s="7">
+        <v>88</v>
+      </c>
+      <c r="N13" s="7">
+        <v>55589</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>12</v>
-      </c>
-      <c r="I13" s="7">
-        <v>9694</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13" s="7">
-        <v>18</v>
-      </c>
-      <c r="N13" s="7">
-        <v>14481</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>1937</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>56</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>2760</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>4697</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1822,10 +1822,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D15" s="7">
-        <v>4787</v>
+        <v>35123</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -1837,10 +1837,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I15" s="7">
-        <v>9694</v>
+        <v>25164</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -1852,10 +1852,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="N15" s="7">
-        <v>14481</v>
+        <v>60286</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -1869,97 +1869,97 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D16" s="7">
-        <v>33186</v>
+        <v>37482</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I16" s="7">
-        <v>22404</v>
+        <v>24884</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="M16" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N16" s="7">
-        <v>55589</v>
+        <v>62366</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>1937</v>
+        <v>1335</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>2760</v>
+        <v>793</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>74</v>
       </c>
       <c r="M17" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N17" s="7">
-        <v>4697</v>
+        <v>2128</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>75</v>
@@ -1977,10 +1977,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" s="7">
-        <v>35123</v>
+        <v>38817</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -1992,10 +1992,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I18" s="7">
-        <v>25164</v>
+        <v>25677</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -2007,10 +2007,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N18" s="7">
-        <v>60286</v>
+        <v>64494</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -2078,7 +2078,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>5</v>
@@ -2195,7 +2195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B69B10-6871-4855-9863-9F0E0379D994}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D597B63C-D025-4B6E-9AE2-950A719CD870}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2313,100 +2313,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>50316</v>
+        <v>2652</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>97</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>9</v>
+      </c>
+      <c r="I4" s="7">
+        <v>7830</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="7">
-        <v>76</v>
-      </c>
-      <c r="I4" s="7">
-        <v>50148</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>12</v>
+      </c>
+      <c r="N4" s="7">
+        <v>10482</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="7">
-        <v>147</v>
-      </c>
-      <c r="N4" s="7">
-        <v>100464</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="P4" s="7" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>647</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>1589</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>2236</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2415,10 +2415,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>50963</v>
+        <v>2652</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -2430,10 +2430,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="I6" s="7">
-        <v>51737</v>
+        <v>7830</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -2445,10 +2445,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="N6" s="7">
-        <v>102700</v>
+        <v>10482</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -2462,7 +2462,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2474,10 +2474,10 @@
         <v>35058</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>11</v>
@@ -2492,7 +2492,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2504,10 +2504,10 @@
         <v>68269</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -2516,7 +2516,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>2</v>
@@ -2525,13 +2525,13 @@
         <v>1637</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2540,13 +2540,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -2555,13 +2555,13 @@
         <v>1637</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2617,106 +2617,106 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D10" s="7">
-        <v>47878</v>
+        <v>50316</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="I10" s="7">
-        <v>49997</v>
+        <v>50148</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="N10" s="7">
-        <v>97875</v>
+        <v>100464</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>647</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1589</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M11" s="7">
         <v>3</v>
       </c>
-      <c r="D11" s="7">
-        <v>2063</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>787</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="M11" s="7">
-        <v>4</v>
-      </c>
       <c r="N11" s="7">
-        <v>2850</v>
+        <v>2236</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2725,10 +2725,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D12" s="7">
-        <v>49941</v>
+        <v>50963</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -2740,10 +2740,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="I12" s="7">
-        <v>50784</v>
+        <v>51737</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2755,10 +2755,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="N12" s="7">
-        <v>100725</v>
+        <v>102700</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -2772,106 +2772,106 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="D13" s="7">
-        <v>2652</v>
+        <v>49993</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" s="7">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="I13" s="7">
-        <v>7830</v>
+        <v>42303</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M13" s="7">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="N13" s="7">
-        <v>10482</v>
+        <v>92296</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>1235</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>1126</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>2361</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2880,10 +2880,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="D15" s="7">
-        <v>2652</v>
+        <v>51228</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -2895,10 +2895,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="I15" s="7">
-        <v>7830</v>
+        <v>43429</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -2910,10 +2910,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="N15" s="7">
-        <v>10482</v>
+        <v>94657</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -2927,88 +2927,88 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D16" s="7">
-        <v>49993</v>
+        <v>47878</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="H16" s="7">
         <v>67</v>
       </c>
       <c r="I16" s="7">
-        <v>42303</v>
+        <v>49997</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M16" s="7">
+        <v>131</v>
+      </c>
+      <c r="N16" s="7">
+        <v>97875</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="N16" s="7">
-        <v>92296</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>1235</v>
+        <v>2063</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>147</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>1126</v>
+        <v>787</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>148</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>149</v>
@@ -3017,7 +3017,7 @@
         <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>2361</v>
+        <v>2850</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>150</v>
@@ -3035,10 +3035,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D18" s="7">
-        <v>51228</v>
+        <v>49941</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -3050,10 +3050,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I18" s="7">
-        <v>43429</v>
+        <v>50784</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -3065,10 +3065,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="N18" s="7">
-        <v>94657</v>
+        <v>100725</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -3136,7 +3136,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>8</v>
@@ -3253,7 +3253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E838BE-B49A-4320-9087-F61B50C4CD59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A866E8FA-171F-4FDB-82BE-D38B4908240B}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3371,10 +3371,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>49761</v>
+        <v>4512</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -3386,40 +3386,40 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>52854</v>
+        <v>7682</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>13</v>
+      </c>
+      <c r="N4" s="7">
+        <v>12194</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="7">
-        <v>159</v>
-      </c>
-      <c r="N4" s="7">
-        <v>102615</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -3428,43 +3428,43 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>564</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>564</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,10 +3473,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>49761</v>
+        <v>4512</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -3488,10 +3488,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="I6" s="7">
-        <v>53418</v>
+        <v>7682</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -3503,10 +3503,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="N6" s="7">
-        <v>103179</v>
+        <v>12194</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -3520,7 +3520,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3535,7 +3535,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -3547,10 +3547,10 @@
         <v>23822</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
@@ -3562,10 +3562,10 @@
         <v>48029</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -3574,7 +3574,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -3583,13 +3583,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3598,13 +3598,13 @@
         <v>560</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3613,13 +3613,13 @@
         <v>560</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3675,61 +3675,61 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="D10" s="7">
-        <v>37270</v>
+        <v>49761</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7">
+        <v>85</v>
+      </c>
+      <c r="I10" s="7">
+        <v>52854</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="7">
+        <v>159</v>
+      </c>
+      <c r="N10" s="7">
+        <v>102615</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>59</v>
-      </c>
-      <c r="I10" s="7">
-        <v>43106</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="7">
-        <v>111</v>
-      </c>
-      <c r="N10" s="7">
-        <v>80376</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -3738,40 +3738,40 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>564</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>1</v>
+      </c>
+      <c r="N11" s="7">
+        <v>564</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="P11" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>195</v>
@@ -3783,10 +3783,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="D12" s="7">
-        <v>37270</v>
+        <v>49761</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -3798,10 +3798,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="I12" s="7">
-        <v>43106</v>
+        <v>53418</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -3813,10 +3813,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="N12" s="7">
-        <v>80376</v>
+        <v>103179</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -3830,106 +3830,106 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D13" s="7">
-        <v>4512</v>
+        <v>29575</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H13" s="7">
+        <v>55</v>
+      </c>
+      <c r="I13" s="7">
+        <v>32795</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>8</v>
-      </c>
-      <c r="I13" s="7">
-        <v>7682</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M13" s="7">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="N13" s="7">
-        <v>12194</v>
+        <v>62371</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>2799</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>1153</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>19</v>
+        <v>207</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>3952</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3938,10 +3938,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="D15" s="7">
-        <v>4512</v>
+        <v>32374</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -3953,10 +3953,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="I15" s="7">
-        <v>7682</v>
+        <v>33948</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -3968,10 +3968,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="N15" s="7">
-        <v>12194</v>
+        <v>66323</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -3985,103 +3985,103 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D16" s="7">
-        <v>29575</v>
+        <v>37270</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>202</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>204</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I16" s="7">
-        <v>32795</v>
+        <v>43106</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="L16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="7">
+        <v>111</v>
+      </c>
+      <c r="N16" s="7">
+        <v>80376</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M16" s="7">
-        <v>102</v>
-      </c>
-      <c r="N16" s="7">
-        <v>62371</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>207</v>
-      </c>
       <c r="P16" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>209</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="7">
-        <v>4</v>
-      </c>
-      <c r="D17" s="7">
-        <v>2799</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>211</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>1153</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>213</v>
+        <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M17" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>3952</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>215</v>
+        <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>216</v>
+        <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>217</v>
@@ -4093,10 +4093,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="7">
-        <v>32374</v>
+        <v>37270</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -4108,10 +4108,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I18" s="7">
-        <v>33948</v>
+        <v>43106</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -4123,10 +4123,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="N18" s="7">
-        <v>66323</v>
+        <v>80376</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -4194,7 +4194,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>4</v>

--- a/data/trans_orig/IP16A09-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A09-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC92473B-CB75-4CF3-B013-A061C12D7F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{676FAA69-92F4-45C0-9F1E-442DEE3BD119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{70EB89B0-AF44-495E-AC75-928AD2C68163}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7B2FEF48-8678-4470-B2D9-EF4E5F8B010D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="233">
   <si>
     <t>Menores según si ha consumido medicamentos para los vómitos en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -70,6 +70,24 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -88,468 +106,462 @@
     <t>90,01%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
     <t>94,97%</t>
   </si>
   <si>
     <t>97,42%</t>
   </si>
   <si>
-    <t>86,71%</t>
+    <t>86,86%</t>
   </si>
   <si>
     <t>98,73%</t>
   </si>
   <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
+    <t>93,05%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
     <t>96,96%</t>
   </si>
   <si>
     <t>97,49%</t>
   </si>
   <si>
-    <t>90,93%</t>
+    <t>91,09%</t>
   </si>
   <si>
     <t>98,74%</t>
   </si>
   <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
+    <t>95,52%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
     <t>94,49%</t>
   </si>
   <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
   </si>
   <si>
     <t>89,03%</t>
   </si>
   <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
   </si>
   <si>
     <t>92,21%</t>
   </si>
   <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
     <t>96,56%</t>
   </si>
   <si>
-    <t>89,6%</t>
+    <t>87,58%</t>
   </si>
   <si>
     <t>96,91%</t>
   </si>
   <si>
-    <t>85,03%</t>
+    <t>87,5%</t>
   </si>
   <si>
     <t>96,7%</t>
   </si>
   <si>
-    <t>91,06%</t>
+    <t>90,71%</t>
   </si>
   <si>
     <t>98,99%</t>
   </si>
   <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
   </si>
   <si>
     <t>97,73%</t>
   </si>
   <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
   </si>
   <si>
     <t>95,85%</t>
   </si>
   <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
   </si>
   <si>
     <t>96,85%</t>
   </si>
   <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
     <t>Menores según si ha consumido medicamentos para los vómitos en 2012 (Tasa respuesta: 25,73%)</t>
   </si>
   <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
     <t>55,59%</t>
   </si>
   <si>
     <t>81,26%</t>
   </si>
   <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
   </si>
   <si>
     <t>95,54%</t>
   </si>
   <si>
-    <t>85,92%</t>
-  </si>
-  <si>
     <t>95,84%</t>
   </si>
   <si>
     <t>97,66%</t>
   </si>
   <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
   </si>
   <si>
     <t>96,93%</t>
   </si>
   <si>
-    <t>90,61%</t>
+    <t>89,68%</t>
   </si>
   <si>
     <t>97,82%</t>
   </si>
   <si>
-    <t>93,5%</t>
+    <t>93,53%</t>
   </si>
   <si>
     <t>99,37%</t>
   </si>
   <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
   </si>
   <si>
     <t>97,59%</t>
   </si>
   <si>
-    <t>91,37%</t>
+    <t>92,79%</t>
   </si>
   <si>
     <t>97,41%</t>
   </si>
   <si>
-    <t>90,81%</t>
+    <t>91,45%</t>
   </si>
   <si>
     <t>97,51%</t>
   </si>
   <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
   </si>
   <si>
     <t>95,87%</t>
   </si>
   <si>
-    <t>88,94%</t>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
   </si>
   <si>
     <t>98,71%</t>
   </si>
   <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
     <t>Menores según si ha consumido medicamentos para los vómitos en 2015 (Tasa respuesta: 21,64%)</t>
   </si>
   <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
     <t>69,43%</t>
   </si>
   <si>
@@ -559,13 +571,19 @@
     <t>86,51%</t>
   </si>
   <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
   </si>
   <si>
     <t>94,39%</t>
@@ -574,28 +592,28 @@
     <t>97,71%</t>
   </si>
   <si>
-    <t>89,96%</t>
+    <t>88,32%</t>
   </si>
   <si>
     <t>98,85%</t>
   </si>
   <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
   </si>
   <si>
     <t>97,45%</t>
@@ -604,76 +622,67 @@
     <t>98,94%</t>
   </si>
   <si>
-    <t>94,65%</t>
+    <t>94,66%</t>
   </si>
   <si>
     <t>99,45%</t>
   </si>
   <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
   </si>
   <si>
     <t>91,36%</t>
   </si>
   <si>
-    <t>79,4%</t>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
   </si>
   <si>
     <t>97,79%</t>
   </si>
   <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
   </si>
   <si>
     <t>96,39%</t>
@@ -682,31 +691,40 @@
     <t>96,81%</t>
   </si>
   <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
   </si>
   <si>
     <t>98,11%</t>
   </si>
   <si>
-    <t>95,33%</t>
+    <t>95,36%</t>
   </si>
   <si>
     <t>99,52%</t>
   </si>
   <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
+    <t>96,78%</t>
   </si>
   <si>
     <t>99,65%</t>
@@ -715,37 +733,10 @@
     <t>98,37%</t>
   </si>
   <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
   </si>
 </sst>
 </file>
@@ -756,7 +747,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -852,39 +843,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -936,7 +927,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1047,13 +1038,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1062,6 +1046,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1126,19 +1117,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1C7B34-C451-4CD1-8726-439309DC8AB0}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40637600-5C02-43EF-A6BE-15D74B93C669}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1255,10 +1266,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>4787</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1270,34 +1281,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>9694</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>14481</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1306,10 +1317,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>4787</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1321,34 +1332,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>9694</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
         <v>18</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>14481</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1363,13 +1374,13 @@
         <v>4787</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>12</v>
@@ -1378,13 +1389,13 @@
         <v>9694</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>18</v>
@@ -1393,13 +1404,13 @@
         <v>14481</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1410,49 +1421,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>23887</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H7" s="7">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>22526</v>
+        <v>598</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M7" s="7">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>46413</v>
+        <v>598</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1461,49 +1472,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>23887</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="I8" s="7">
-        <v>598</v>
+        <v>22526</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>29</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="N8" s="7">
-        <v>598</v>
+        <v>46413</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1518,13 +1529,13 @@
         <v>23887</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>35</v>
@@ -1533,13 +1544,13 @@
         <v>23124</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>72</v>
@@ -1548,13 +1559,13 @@
         <v>47011</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1565,49 +1576,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>41306</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H10" s="7">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>40600</v>
+        <v>1047</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>35</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M10" s="7">
-        <v>127</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>81905</v>
+        <v>1047</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>37</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1616,49 +1627,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>41306</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="I11" s="7">
-        <v>1047</v>
+        <v>40600</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="N11" s="7">
-        <v>1047</v>
+        <v>81905</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>42</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1673,13 +1684,13 @@
         <v>41306</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>67</v>
@@ -1688,13 +1699,13 @@
         <v>41647</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>129</v>
@@ -1703,13 +1714,13 @@
         <v>82952</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1720,10 +1731,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>33186</v>
+        <v>1937</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>45</v>
@@ -1735,10 +1746,10 @@
         <v>47</v>
       </c>
       <c r="H13" s="7">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>22404</v>
+        <v>2760</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>48</v>
@@ -1750,10 +1761,10 @@
         <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="N13" s="7">
-        <v>55589</v>
+        <v>4697</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>51</v>
@@ -1771,10 +1782,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="D14" s="7">
-        <v>1937</v>
+        <v>33186</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>54</v>
@@ -1786,10 +1797,10 @@
         <v>56</v>
       </c>
       <c r="H14" s="7">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="I14" s="7">
-        <v>2760</v>
+        <v>22404</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>57</v>
@@ -1801,10 +1812,10 @@
         <v>59</v>
       </c>
       <c r="M14" s="7">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="N14" s="7">
-        <v>4697</v>
+        <v>55589</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>60</v>
@@ -1828,13 +1839,13 @@
         <v>35123</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>42</v>
@@ -1843,13 +1854,13 @@
         <v>25164</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>96</v>
@@ -1858,13 +1869,13 @@
         <v>60286</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1875,40 +1886,40 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>37482</v>
+        <v>1335</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>64</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H16" s="7">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>24884</v>
+        <v>793</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>66</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M16" s="7">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>62366</v>
+        <v>2128</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>68</v>
@@ -1926,40 +1937,40 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="D17" s="7">
-        <v>1335</v>
+        <v>37482</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>71</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="I17" s="7">
-        <v>793</v>
+        <v>24884</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>73</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="N17" s="7">
-        <v>2128</v>
+        <v>62366</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>75</v>
@@ -1983,13 +1994,13 @@
         <v>38817</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>34</v>
@@ -1998,13 +2009,13 @@
         <v>25677</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>90</v>
@@ -2013,13 +2024,13 @@
         <v>64494</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2030,10 +2041,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>210</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>140647</v>
+        <v>3272</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>78</v>
@@ -2045,10 +2056,10 @@
         <v>80</v>
       </c>
       <c r="H19" s="7">
-        <v>181</v>
+        <v>9</v>
       </c>
       <c r="I19" s="7">
-        <v>120108</v>
+        <v>5197</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>81</v>
@@ -2060,10 +2071,10 @@
         <v>83</v>
       </c>
       <c r="M19" s="7">
-        <v>391</v>
+        <v>14</v>
       </c>
       <c r="N19" s="7">
-        <v>260755</v>
+        <v>8469</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>84</v>
@@ -2081,10 +2092,10 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="D20" s="7">
-        <v>3272</v>
+        <v>140647</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>87</v>
@@ -2096,10 +2107,10 @@
         <v>89</v>
       </c>
       <c r="H20" s="7">
-        <v>9</v>
+        <v>181</v>
       </c>
       <c r="I20" s="7">
-        <v>5197</v>
+        <v>120108</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>90</v>
@@ -2111,10 +2122,10 @@
         <v>92</v>
       </c>
       <c r="M20" s="7">
-        <v>14</v>
+        <v>391</v>
       </c>
       <c r="N20" s="7">
-        <v>8469</v>
+        <v>260755</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>93</v>
@@ -2138,13 +2149,13 @@
         <v>143919</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>190</v>
@@ -2153,13 +2164,13 @@
         <v>125305</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>405</v>
@@ -2168,13 +2179,18 @@
         <v>269224</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2195,8 +2211,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D597B63C-D025-4B6E-9AE2-950A719CD870}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97B44D2-A395-4283-94CB-57E23324A572}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2212,7 +2228,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2313,49 +2329,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>2652</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="H4" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>7830</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M4" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>10482</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2364,49 +2380,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>2652</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>7830</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>10482</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2421,13 +2437,13 @@
         <v>2652</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>9</v>
@@ -2436,13 +2452,13 @@
         <v>7830</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>12</v>
@@ -2451,13 +2467,13 @@
         <v>10482</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2468,49 +2484,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>35058</v>
+        <v>1637</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H7" s="7">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>33211</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M7" s="7">
-        <v>94</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>68269</v>
+        <v>1637</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>104</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2519,49 +2535,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="D8" s="7">
-        <v>1637</v>
+        <v>35058</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>106</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>33211</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="L8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="7">
+        <v>94</v>
+      </c>
+      <c r="N8" s="7">
+        <v>68269</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="M8" s="7">
-        <v>2</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1637</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2576,13 +2592,13 @@
         <v>36695</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>45</v>
@@ -2591,13 +2607,13 @@
         <v>33211</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>96</v>
@@ -2606,13 +2622,13 @@
         <v>69906</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2623,49 +2639,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>50316</v>
+        <v>647</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="7">
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1589</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="7">
-        <v>76</v>
-      </c>
-      <c r="I10" s="7">
-        <v>50148</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>3</v>
+      </c>
+      <c r="N10" s="7">
+        <v>2236</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" s="7">
-        <v>147</v>
-      </c>
-      <c r="N10" s="7">
-        <v>100464</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2674,49 +2690,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="D11" s="7">
-        <v>647</v>
+        <v>50316</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>76</v>
+      </c>
+      <c r="I11" s="7">
+        <v>50148</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1589</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>147</v>
+      </c>
+      <c r="N11" s="7">
+        <v>100464</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="M11" s="7">
-        <v>3</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2236</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2731,13 +2747,13 @@
         <v>50963</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>78</v>
@@ -2746,13 +2762,13 @@
         <v>51737</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>150</v>
@@ -2761,13 +2777,13 @@
         <v>102700</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2778,49 +2794,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>49993</v>
+        <v>1235</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1126</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="7">
-        <v>67</v>
-      </c>
-      <c r="I13" s="7">
-        <v>42303</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>4</v>
+      </c>
+      <c r="N13" s="7">
+        <v>2361</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M13" s="7">
-        <v>143</v>
-      </c>
-      <c r="N13" s="7">
-        <v>92296</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2829,49 +2845,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="D14" s="7">
-        <v>1235</v>
+        <v>49993</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>67</v>
+      </c>
+      <c r="I14" s="7">
+        <v>42303</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1126</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>143</v>
+      </c>
+      <c r="N14" s="7">
+        <v>92296</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="M14" s="7">
-        <v>4</v>
-      </c>
-      <c r="N14" s="7">
-        <v>2361</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2886,13 +2902,13 @@
         <v>51228</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>69</v>
@@ -2901,13 +2917,13 @@
         <v>43429</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>147</v>
@@ -2916,13 +2932,13 @@
         <v>94657</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2933,49 +2949,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>47878</v>
+        <v>2063</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>787</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="H16" s="7">
-        <v>67</v>
-      </c>
-      <c r="I16" s="7">
-        <v>49997</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>4</v>
+      </c>
+      <c r="N16" s="7">
+        <v>2850</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M16" s="7">
-        <v>131</v>
-      </c>
-      <c r="N16" s="7">
-        <v>97875</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2984,49 +3000,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="D17" s="7">
-        <v>2063</v>
+        <v>47878</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>67</v>
+      </c>
+      <c r="I17" s="7">
+        <v>49997</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>787</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>131</v>
+      </c>
+      <c r="N17" s="7">
+        <v>97875</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="M17" s="7">
-        <v>4</v>
-      </c>
-      <c r="N17" s="7">
-        <v>2850</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3041,13 +3057,13 @@
         <v>49941</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>68</v>
@@ -3056,13 +3072,13 @@
         <v>50784</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>135</v>
@@ -3071,13 +3087,13 @@
         <v>100725</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3088,40 +3104,40 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>263</v>
+        <v>8</v>
       </c>
       <c r="D19" s="7">
-        <v>185896</v>
+        <v>5582</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>5</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3501</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H19" s="7">
-        <v>264</v>
-      </c>
-      <c r="I19" s="7">
-        <v>183491</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>157</v>
       </c>
       <c r="M19" s="7">
-        <v>527</v>
+        <v>13</v>
       </c>
       <c r="N19" s="7">
-        <v>369387</v>
+        <v>9083</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>158</v>
@@ -3139,10 +3155,10 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>8</v>
+        <v>263</v>
       </c>
       <c r="D20" s="7">
-        <v>5582</v>
+        <v>185896</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>161</v>
@@ -3154,10 +3170,10 @@
         <v>163</v>
       </c>
       <c r="H20" s="7">
-        <v>5</v>
+        <v>264</v>
       </c>
       <c r="I20" s="7">
-        <v>3501</v>
+        <v>183491</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>164</v>
@@ -3166,22 +3182,22 @@
         <v>165</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="M20" s="7">
-        <v>13</v>
+        <v>527</v>
       </c>
       <c r="N20" s="7">
-        <v>9083</v>
+        <v>369387</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3196,13 +3212,13 @@
         <v>191478</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>269</v>
@@ -3211,13 +3227,13 @@
         <v>186992</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>540</v>
@@ -3226,13 +3242,18 @@
         <v>378470</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3253,8 +3274,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A866E8FA-171F-4FDB-82BE-D38B4908240B}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDEEB4C-CDCB-493D-BC9D-AA9A241758AA}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3270,7 +3291,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3371,49 +3392,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>4512</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="H4" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>7682</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="M4" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>12194</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3422,49 +3443,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>4512</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>7682</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>12194</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,13 +3500,13 @@
         <v>4512</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -3494,13 +3515,13 @@
         <v>7682</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -3509,13 +3530,13 @@
         <v>12194</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,49 +3547,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>24207</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>177</v>
       </c>
       <c r="H7" s="7">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>23822</v>
+        <v>560</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="7">
+        <v>560</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="7">
-        <v>67</v>
-      </c>
-      <c r="N7" s="7">
-        <v>48029</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>180</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3577,49 +3598,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>24207</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>181</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="I8" s="7">
-        <v>560</v>
+        <v>23822</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>183</v>
-      </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="N8" s="7">
-        <v>560</v>
+        <v>48029</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3634,13 +3655,13 @@
         <v>24207</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>35</v>
@@ -3649,13 +3670,13 @@
         <v>24382</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>68</v>
@@ -3664,13 +3685,13 @@
         <v>48589</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3681,49 +3702,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>49761</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="H10" s="7">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>52854</v>
+        <v>564</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>188</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>564</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="7">
-        <v>159</v>
-      </c>
-      <c r="N10" s="7">
-        <v>102615</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>190</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3732,49 +3753,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>49761</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="I11" s="7">
-        <v>564</v>
+        <v>52854</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>159</v>
       </c>
       <c r="N11" s="7">
-        <v>564</v>
+        <v>102615</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3789,13 +3810,13 @@
         <v>49761</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>86</v>
@@ -3804,13 +3825,13 @@
         <v>53418</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>160</v>
@@ -3819,13 +3840,13 @@
         <v>103179</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,49 +3857,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>29575</v>
+        <v>2799</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H13" s="7">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>32795</v>
+        <v>1153</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="M13" s="7">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="N13" s="7">
-        <v>62371</v>
+        <v>3952</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3887,49 +3908,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="D14" s="7">
-        <v>2799</v>
+        <v>29575</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="I14" s="7">
-        <v>1153</v>
+        <v>32795</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>208</v>
-      </c>
       <c r="M14" s="7">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="N14" s="7">
-        <v>3952</v>
+        <v>62371</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3944,13 +3965,13 @@
         <v>32374</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>57</v>
@@ -3959,13 +3980,13 @@
         <v>33948</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>108</v>
@@ -3974,13 +3995,13 @@
         <v>66323</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3991,49 +4012,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>37270</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>213</v>
       </c>
       <c r="H16" s="7">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>43106</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>214</v>
       </c>
       <c r="M16" s="7">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>80376</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4042,49 +4063,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>37270</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>215</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>215</v>
+        <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>43106</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>216</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>80376</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>217</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4099,13 +4120,13 @@
         <v>37270</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>59</v>
@@ -4114,13 +4135,13 @@
         <v>43106</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>111</v>
@@ -4129,13 +4150,13 @@
         <v>80376</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,49 +4167,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>211</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>145326</v>
+        <v>2799</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>4</v>
+      </c>
+      <c r="I19" s="7">
+        <v>2277</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="H19" s="7">
-        <v>241</v>
-      </c>
-      <c r="I19" s="7">
-        <v>160259</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>8</v>
+      </c>
+      <c r="N19" s="7">
+        <v>5075</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="M19" s="7">
-        <v>452</v>
-      </c>
-      <c r="N19" s="7">
-        <v>305586</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4197,49 +4218,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>4</v>
+        <v>211</v>
       </c>
       <c r="D20" s="7">
-        <v>2799</v>
+        <v>145326</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>241</v>
+      </c>
+      <c r="I20" s="7">
+        <v>160259</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="H20" s="7">
-        <v>4</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2277</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>452</v>
+      </c>
+      <c r="N20" s="7">
+        <v>305586</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5075</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4254,13 +4275,13 @@
         <v>148125</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>245</v>
@@ -4269,13 +4290,13 @@
         <v>162536</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>460</v>
@@ -4284,13 +4305,18 @@
         <v>310661</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16A09-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A09-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{676FAA69-92F4-45C0-9F1E-442DEE3BD119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58EA9308-3866-482E-8BC6-BE3FADBB5108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7B2FEF48-8678-4470-B2D9-EF4E5F8B010D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{047623C8-C5D0-40E4-82FD-9C6A17D51E2B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="229">
   <si>
     <t>Menores según si ha consumido medicamentos para los vómitos en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -106,7 +106,7 @@
     <t>90,01%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>5,03%</t>
@@ -115,13 +115,13 @@
     <t>2,58%</t>
   </si>
   <si>
-    <t>13,14%</t>
+    <t>10,61%</t>
   </si>
   <si>
     <t>1,27%</t>
   </si>
   <si>
-    <t>6,95%</t>
+    <t>6,28%</t>
   </si>
   <si>
     <t>94,97%</t>
@@ -130,16 +130,16 @@
     <t>97,42%</t>
   </si>
   <si>
-    <t>86,86%</t>
+    <t>89,39%</t>
   </si>
   <si>
     <t>98,73%</t>
   </si>
   <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>3,04%</t>
@@ -148,13 +148,13 @@
     <t>2,51%</t>
   </si>
   <si>
-    <t>8,91%</t>
+    <t>8,18%</t>
   </si>
   <si>
     <t>1,26%</t>
   </si>
   <si>
-    <t>4,48%</t>
+    <t>4,15%</t>
   </si>
   <si>
     <t>96,96%</t>
@@ -163,16 +163,16 @@
     <t>97,49%</t>
   </si>
   <si>
-    <t>91,09%</t>
+    <t>91,82%</t>
   </si>
   <si>
     <t>98,74%</t>
   </si>
   <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>5,51%</t>
@@ -181,31 +181,31 @@
     <t>1,8%</t>
   </si>
   <si>
-    <t>14,85%</t>
+    <t>14,9%</t>
   </si>
   <si>
     <t>10,97%</t>
   </si>
   <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
   </si>
   <si>
     <t>7,79%</t>
   </si>
   <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
   </si>
   <si>
     <t>94,49%</t>
   </si>
   <si>
-    <t>85,15%</t>
+    <t>85,1%</t>
   </si>
   <si>
     <t>98,2%</t>
@@ -214,19 +214,19 @@
     <t>89,03%</t>
   </si>
   <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
   </si>
   <si>
     <t>92,21%</t>
   </si>
   <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -235,13 +235,13 @@
     <t>3,44%</t>
   </si>
   <si>
-    <t>12,42%</t>
+    <t>10,59%</t>
   </si>
   <si>
     <t>3,09%</t>
   </si>
   <si>
-    <t>12,5%</t>
+    <t>15,38%</t>
   </si>
   <si>
     <t>3,3%</t>
@@ -250,25 +250,25 @@
     <t>1,01%</t>
   </si>
   <si>
-    <t>9,29%</t>
+    <t>8,71%</t>
   </si>
   <si>
     <t>96,56%</t>
   </si>
   <si>
-    <t>87,58%</t>
+    <t>89,41%</t>
   </si>
   <si>
     <t>96,91%</t>
   </si>
   <si>
-    <t>87,5%</t>
+    <t>84,62%</t>
   </si>
   <si>
     <t>96,7%</t>
   </si>
   <si>
-    <t>90,71%</t>
+    <t>91,29%</t>
   </si>
   <si>
     <t>98,99%</t>
@@ -277,454 +277,442 @@
     <t>2,27%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
   </si>
   <si>
     <t>3,15%</t>
   </si>
   <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicamentos para los vómitos en 2012 (Tasa respuesta: 25,73%)</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicamentos para los vómitos en 2016 (Tasa respuesta: 21,64%)</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
     <t>1,71%</t>
   </si>
   <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
   </si>
   <si>
     <t>98,29%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicamentos para los vómitos en 2012 (Tasa respuesta: 25,73%)</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
   </si>
   <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
   </si>
   <si>
     <t>98,6%</t>
   </si>
   <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicamentos para los vómitos en 2015 (Tasa respuesta: 21,64%)</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
+    <t>96,51%</t>
   </si>
   <si>
     <t>99,65%</t>
@@ -736,7 +724,7 @@
     <t>96,88%</t>
   </si>
   <si>
-    <t>99,24%</t>
+    <t>99,27%</t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40637600-5C02-43EF-A6BE-15D74B93C669}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914A53AE-38CA-4E8B-88D9-37AD7EF1621F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2062,13 +2050,13 @@
         <v>5197</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M19" s="7">
         <v>14</v>
@@ -2077,13 +2065,13 @@
         <v>8469</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2098,13 +2086,13 @@
         <v>140647</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H20" s="7">
         <v>181</v>
@@ -2113,13 +2101,13 @@
         <v>120108</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M20" s="7">
         <v>391</v>
@@ -2128,13 +2116,13 @@
         <v>260755</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2190,7 +2178,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2211,7 +2199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97B44D2-A395-4283-94CB-57E23324A572}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB82845-E63A-4ADD-8C61-D4EF71562546}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2228,7 +2216,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2341,7 +2329,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2356,7 +2344,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2389,7 +2377,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2404,7 +2392,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2490,13 +2478,13 @@
         <v>1637</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2511,7 +2499,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -2520,13 +2508,13 @@
         <v>1637</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2541,10 +2529,10 @@
         <v>35058</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -2675,13 +2663,13 @@
         <v>2236</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,7 +2687,7 @@
         <v>31</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -2711,10 +2699,10 @@
         <v>50148</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>17</v>
@@ -2726,13 +2714,13 @@
         <v>100464</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2800,13 +2788,13 @@
         <v>1235</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -2815,13 +2803,13 @@
         <v>1126</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -2830,13 +2818,13 @@
         <v>2361</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2851,10 +2839,10 @@
         <v>49993</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -2866,10 +2854,10 @@
         <v>42303</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -2881,13 +2869,13 @@
         <v>92296</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2955,13 +2943,13 @@
         <v>2063</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2970,13 +2958,13 @@
         <v>787</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -2985,13 +2973,13 @@
         <v>2850</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,13 +2994,13 @@
         <v>47878</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H17" s="7">
         <v>67</v>
@@ -3021,10 +3009,10 @@
         <v>49997</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -3036,13 +3024,13 @@
         <v>97875</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,13 +3098,13 @@
         <v>5582</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -3125,13 +3113,13 @@
         <v>3501</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -3140,13 +3128,13 @@
         <v>9083</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,13 +3149,13 @@
         <v>185896</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H20" s="7">
         <v>264</v>
@@ -3176,13 +3164,13 @@
         <v>183491</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M20" s="7">
         <v>527</v>
@@ -3191,13 +3179,13 @@
         <v>369387</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,7 +3241,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3274,7 +3262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDEEB4C-CDCB-493D-BC9D-AA9A241758AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D283063-8A87-4241-8F19-6D1AC4E18C13}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3291,7 +3279,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3404,7 +3392,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3419,7 +3407,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3434,7 +3422,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,7 +3440,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3467,7 +3455,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3482,7 +3470,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3559,7 +3547,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3568,13 +3556,13 @@
         <v>560</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -3583,13 +3571,13 @@
         <v>560</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>181</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,7 +3595,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3619,10 +3607,10 @@
         <v>23822</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -3634,10 +3622,10 @@
         <v>48029</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>186</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -3714,7 +3702,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3723,13 +3711,13 @@
         <v>564</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -3738,13 +3726,13 @@
         <v>564</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3762,7 +3750,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -3774,10 +3762,10 @@
         <v>52854</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>17</v>
@@ -3789,10 +3777,10 @@
         <v>102615</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -3863,13 +3851,13 @@
         <v>2799</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3878,13 +3866,13 @@
         <v>1153</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -3893,13 +3881,13 @@
         <v>3952</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3914,13 +3902,13 @@
         <v>29575</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>55</v>
@@ -3929,10 +3917,10 @@
         <v>32795</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -3944,13 +3932,13 @@
         <v>62371</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4024,7 +4012,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4039,7 +4027,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4054,7 +4042,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>85</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4072,7 +4060,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -4087,7 +4075,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -4102,7 +4090,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>95</v>
+        <v>210</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -4173,13 +4161,13 @@
         <v>2799</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -4188,13 +4176,13 @@
         <v>2277</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>153</v>
+        <v>214</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -4203,13 +4191,13 @@
         <v>5075</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4224,13 +4212,13 @@
         <v>145326</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H20" s="7">
         <v>241</v>
@@ -4239,13 +4227,13 @@
         <v>160259</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>163</v>
+        <v>223</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M20" s="7">
         <v>452</v>
@@ -4254,13 +4242,13 @@
         <v>305586</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,7 +4304,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16A09-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A09-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58EA9308-3866-482E-8BC6-BE3FADBB5108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A82A40A-6F54-4FBC-A42C-13EB409C585A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{047623C8-C5D0-40E4-82FD-9C6A17D51E2B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{BD74CD48-2C0A-4767-A38E-A84FB1786F57}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="222">
   <si>
     <t>Menores según si ha consumido medicamentos para los vómitos en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,349 +67,334 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>1,82%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>10,57%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>73,58%</t>
+    <t>95,66%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicamentos para los vómitos en 2012 (Tasa respuesta: 25,73%)</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
   </si>
   <si>
     <t>1,27%</t>
   </si>
   <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
   </si>
   <si>
     <t>98,73%</t>
   </si>
   <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
+    <t>93,35%</t>
   </si>
   <si>
     <t>97,82%</t>
   </si>
   <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicamentos para los vómitos en 2012 (Tasa respuesta: 25,73%)</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
+    <t>93,5%</t>
   </si>
   <si>
     <t>99,37%</t>
   </si>
   <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
     <t>2,41%</t>
   </si>
   <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
+    <t>8,63%</t>
   </si>
   <si>
     <t>2,49%</t>
@@ -418,313 +403,307 @@
     <t>0,65%</t>
   </si>
   <si>
-    <t>6,35%</t>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
   </si>
   <si>
     <t>97,59%</t>
   </si>
   <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
+    <t>91,37%</t>
   </si>
   <si>
     <t>97,51%</t>
   </si>
   <si>
-    <t>93,65%</t>
+    <t>94,23%</t>
   </si>
   <si>
     <t>99,35%</t>
   </si>
   <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
     <t>4,13%</t>
   </si>
   <si>
     <t>1,29%</t>
   </si>
   <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
+    <t>11,06%</t>
   </si>
   <si>
     <t>2,83%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
   </si>
   <si>
     <t>95,87%</t>
   </si>
   <si>
-    <t>88,87%</t>
+    <t>88,94%</t>
   </si>
   <si>
     <t>98,71%</t>
   </si>
   <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
     <t>97,17%</t>
   </si>
   <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
   </si>
   <si>
     <t>2,92%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
   </si>
   <si>
     <t>2,4%</t>
   </si>
   <si>
-    <t>1,28%</t>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
   </si>
   <si>
     <t>97,08%</t>
   </si>
   <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
   </si>
   <si>
     <t>97,6%</t>
   </si>
   <si>
-    <t>98,72%</t>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
   </si>
   <si>
     <t>Menores según si ha consumido medicamentos para los vómitos en 2016 (Tasa respuesta: 21,64%)</t>
   </si>
   <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
   </si>
   <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>2,91%</t>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
   </si>
   <si>
     <t>97,45%</t>
   </si>
   <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
     <t>99,45%</t>
   </si>
   <si>
-    <t>97,09%</t>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
   </si>
   <si>
     <t>8,64%</t>
   </si>
   <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
   </si>
   <si>
     <t>5,96%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
   </si>
   <si>
     <t>91,36%</t>
   </si>
   <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
   </si>
   <si>
     <t>94,04%</t>
   </si>
   <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
   </si>
   <si>
     <t>3,61%</t>
   </si>
   <si>
-    <t>3,19%</t>
-  </si>
-  <si>
     <t>1,71%</t>
   </si>
   <si>
+    <t>96,81%</t>
+  </si>
+  <si>
     <t>96,39%</t>
   </si>
   <si>
-    <t>96,81%</t>
-  </si>
-  <si>
     <t>98,29%</t>
   </si>
   <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
     <t>1,89%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
   </si>
   <si>
     <t>1,63%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
   </si>
   <si>
     <t>98,11%</t>
   </si>
   <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
   </si>
   <si>
     <t>98,37%</t>
   </si>
   <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
   </si>
 </sst>
 </file>
@@ -1136,8 +1115,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914A53AE-38CA-4E8B-88D9-37AD7EF1621F}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5A1C5A-53BC-450F-94B1-AD2AFA62C8E4}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1254,10 +1233,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>598</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1275,79 +1254,79 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>598</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D5" s="7">
-        <v>4787</v>
+        <v>32220</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I5" s="7">
-        <v>9694</v>
+        <v>28674</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="N5" s="7">
-        <v>14481</v>
+        <v>60894</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1356,153 +1335,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D6" s="7">
-        <v>4787</v>
+        <v>32818</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I6" s="7">
-        <v>9694</v>
+        <v>28674</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="N6" s="7">
-        <v>14481</v>
+        <v>61492</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>1047</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>598</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>598</v>
+        <v>1047</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="D8" s="7">
-        <v>23887</v>
+        <v>40600</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
+        <v>62</v>
+      </c>
+      <c r="I8" s="7">
+        <v>41306</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="7">
-        <v>22526</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M8" s="7">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="N8" s="7">
-        <v>46413</v>
+        <v>81905</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1511,153 +1490,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D9" s="7">
-        <v>23887</v>
+        <v>41647</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="I9" s="7">
-        <v>23124</v>
+        <v>41306</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="N9" s="7">
-        <v>47011</v>
+        <v>82952</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>2760</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>1047</v>
+        <v>1937</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N10" s="7">
-        <v>1047</v>
+        <v>4697</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="D11" s="7">
-        <v>41306</v>
+        <v>22404</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="H11" s="7">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="I11" s="7">
-        <v>40600</v>
+        <v>33186</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="M11" s="7">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="N11" s="7">
-        <v>81905</v>
+        <v>55589</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1666,153 +1645,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D12" s="7">
-        <v>41306</v>
+        <v>25164</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="I12" s="7">
-        <v>41647</v>
+        <v>35123</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="N12" s="7">
-        <v>82952</v>
+        <v>60286</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>793</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1335</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M13" s="7">
         <v>3</v>
       </c>
-      <c r="D13" s="7">
-        <v>1937</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="7">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2760</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M13" s="7">
-        <v>8</v>
-      </c>
       <c r="N13" s="7">
-        <v>4697</v>
+        <v>2128</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D14" s="7">
-        <v>33186</v>
+        <v>24884</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="7">
         <v>54</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="7">
-        <v>37</v>
-      </c>
       <c r="I14" s="7">
-        <v>22404</v>
+        <v>37482</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N14" s="7">
-        <v>55589</v>
+        <v>62366</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1821,153 +1800,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D15" s="7">
-        <v>35123</v>
+        <v>25677</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="I15" s="7">
-        <v>25164</v>
+        <v>38817</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N15" s="7">
-        <v>60286</v>
+        <v>64494</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D16" s="7">
-        <v>1335</v>
+        <v>5197</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>793</v>
+        <v>3272</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="N16" s="7">
-        <v>2128</v>
+        <v>8469</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>54</v>
+        <v>181</v>
       </c>
       <c r="D17" s="7">
-        <v>37482</v>
+        <v>120108</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="H17" s="7">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="I17" s="7">
-        <v>24884</v>
+        <v>140647</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="M17" s="7">
+        <v>391</v>
+      </c>
+      <c r="N17" s="7">
+        <v>260755</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="N17" s="7">
-        <v>62366</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1976,217 +1955,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>56</v>
+        <v>190</v>
       </c>
       <c r="D18" s="7">
-        <v>38817</v>
+        <v>125305</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
-        <v>34</v>
+        <v>215</v>
       </c>
       <c r="I18" s="7">
-        <v>25677</v>
+        <v>143919</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
-        <v>90</v>
+        <v>405</v>
       </c>
       <c r="N18" s="7">
-        <v>64494</v>
+        <v>269224</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>5</v>
-      </c>
-      <c r="D19" s="7">
-        <v>3272</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H19" s="7">
-        <v>9</v>
-      </c>
-      <c r="I19" s="7">
-        <v>5197</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="M19" s="7">
-        <v>14</v>
-      </c>
-      <c r="N19" s="7">
-        <v>8469</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>210</v>
-      </c>
-      <c r="D20" s="7">
-        <v>140647</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H20" s="7">
-        <v>181</v>
-      </c>
-      <c r="I20" s="7">
-        <v>120108</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20" s="7" t="s">
+      <c r="A19" t="s">
         <v>89</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M20" s="7">
-        <v>391</v>
-      </c>
-      <c r="N20" s="7">
-        <v>260755</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>215</v>
-      </c>
-      <c r="D21" s="7">
-        <v>143919</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>190</v>
-      </c>
-      <c r="I21" s="7">
-        <v>125305</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>405</v>
-      </c>
-      <c r="N21" s="7">
-        <v>269224</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>94</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2199,8 +2022,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB82845-E63A-4ADD-8C61-D4EF71562546}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30925A73-B193-4B46-A678-BB781F5390F7}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2216,7 +2039,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2323,94 +2146,94 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1637</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1637</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="D5" s="7">
-        <v>2652</v>
+        <v>41042</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
+        <v>52</v>
+      </c>
+      <c r="I5" s="7">
+        <v>37709</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>9</v>
-      </c>
-      <c r="I5" s="7">
-        <v>7830</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="7">
+        <v>106</v>
+      </c>
+      <c r="N5" s="7">
+        <v>78751</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="7">
-        <v>12</v>
-      </c>
-      <c r="N5" s="7">
-        <v>10482</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2419,54 +2242,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="D6" s="7">
-        <v>2652</v>
+        <v>41042</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="I6" s="7">
-        <v>7830</v>
+        <v>39346</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="N6" s="7">
-        <v>10482</v>
+        <v>80388</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2475,97 +2298,97 @@
         <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>1637</v>
+        <v>1589</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>647</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>1637</v>
+        <v>2236</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="D8" s="7">
-        <v>35058</v>
+        <v>50148</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="I8" s="7">
-        <v>33211</v>
+        <v>50316</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="N8" s="7">
-        <v>68269</v>
+        <v>100464</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2574,153 +2397,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="D9" s="7">
-        <v>36695</v>
+        <v>51737</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="I9" s="7">
-        <v>33211</v>
+        <v>50963</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="N9" s="7">
-        <v>69906</v>
+        <v>102700</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>647</v>
+        <v>1126</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>1589</v>
+        <v>1235</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="M10" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>2236</v>
+        <v>2361</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D11" s="7">
-        <v>50316</v>
+        <v>42303</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
         <v>76</v>
       </c>
       <c r="I11" s="7">
-        <v>50148</v>
+        <v>49993</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="N11" s="7">
-        <v>100464</v>
+        <v>92296</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2729,153 +2552,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D12" s="7">
-        <v>50963</v>
+        <v>43429</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
         <v>78</v>
       </c>
       <c r="I12" s="7">
-        <v>51737</v>
+        <v>51228</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N12" s="7">
-        <v>102700</v>
+        <v>94657</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>1235</v>
+        <v>787</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>1126</v>
+        <v>2063</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>2361</v>
+        <v>2850</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D14" s="7">
-        <v>49993</v>
+        <v>49997</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I14" s="7">
-        <v>42303</v>
+        <v>47878</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="M14" s="7">
+        <v>131</v>
+      </c>
+      <c r="N14" s="7">
+        <v>97875</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="N14" s="7">
-        <v>92296</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>132</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2884,153 +2707,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D15" s="7">
-        <v>51228</v>
+        <v>50784</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I15" s="7">
-        <v>43429</v>
+        <v>49941</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="N15" s="7">
-        <v>94657</v>
+        <v>100725</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>2063</v>
+        <v>3501</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I16" s="7">
-        <v>787</v>
+        <v>5582</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M16" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="N16" s="7">
-        <v>2850</v>
+        <v>9083</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="D17" s="7">
-        <v>47878</v>
+        <v>183491</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="H17" s="7">
-        <v>67</v>
+        <v>263</v>
       </c>
       <c r="I17" s="7">
-        <v>49997</v>
+        <v>185896</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>17</v>
+        <v>157</v>
       </c>
       <c r="M17" s="7">
-        <v>131</v>
+        <v>527</v>
       </c>
       <c r="N17" s="7">
-        <v>97875</v>
+        <v>369387</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3039,217 +2862,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>67</v>
+        <v>269</v>
       </c>
       <c r="D18" s="7">
-        <v>49941</v>
+        <v>186992</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
-        <v>68</v>
+        <v>271</v>
       </c>
       <c r="I18" s="7">
-        <v>50784</v>
+        <v>191478</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
-        <v>135</v>
+        <v>540</v>
       </c>
       <c r="N18" s="7">
-        <v>100725</v>
+        <v>378470</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>8</v>
-      </c>
-      <c r="D19" s="7">
-        <v>5582</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H19" s="7">
-        <v>5</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3501</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="M19" s="7">
-        <v>13</v>
-      </c>
-      <c r="N19" s="7">
-        <v>9083</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>263</v>
-      </c>
-      <c r="D20" s="7">
-        <v>185896</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H20" s="7">
-        <v>264</v>
-      </c>
-      <c r="I20" s="7">
-        <v>183491</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="M20" s="7">
-        <v>527</v>
-      </c>
-      <c r="N20" s="7">
-        <v>369387</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>271</v>
-      </c>
-      <c r="D21" s="7">
-        <v>191478</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>269</v>
-      </c>
-      <c r="I21" s="7">
-        <v>186992</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>540</v>
-      </c>
-      <c r="N21" s="7">
-        <v>378470</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>94</v>
+      <c r="A19" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3262,8 +2929,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D283063-8A87-4241-8F19-6D1AC4E18C13}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7548F4EA-C331-46D4-9B11-86BB9AAA5D72}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3279,7 +2946,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3380,19 +3047,19 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3401,79 +3068,79 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>165</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="D5" s="7">
-        <v>4512</v>
+        <v>31504</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="7">
+        <v>38</v>
+      </c>
+      <c r="I5" s="7">
+        <v>28719</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="7">
+        <v>80</v>
+      </c>
+      <c r="N5" s="7">
+        <v>60223</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>8</v>
-      </c>
-      <c r="I5" s="7">
-        <v>7682</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="7">
-        <v>13</v>
-      </c>
-      <c r="N5" s="7">
-        <v>12194</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>172</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,66 +3149,66 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D6" s="7">
-        <v>4512</v>
+        <v>32064</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="I6" s="7">
-        <v>7682</v>
+        <v>28719</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="N6" s="7">
-        <v>12194</v>
+        <v>60783</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>564</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
@@ -3550,85 +3217,85 @@
         <v>173</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="D8" s="7">
-        <v>24207</v>
+        <v>52854</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="I8" s="7">
-        <v>23822</v>
+        <v>49761</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>178</v>
+        <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>179</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M8" s="7">
-        <v>67</v>
+        <v>159</v>
       </c>
       <c r="N8" s="7">
-        <v>48029</v>
+        <v>102615</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>180</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,153 +3304,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="D9" s="7">
-        <v>24207</v>
+        <v>53418</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="I9" s="7">
-        <v>24382</v>
+        <v>49761</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
-        <v>68</v>
+        <v>160</v>
       </c>
       <c r="N9" s="7">
-        <v>48589</v>
+        <v>103179</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>1153</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>564</v>
+        <v>2799</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>185</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N10" s="7">
-        <v>564</v>
+        <v>3952</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>188</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="D11" s="7">
-        <v>49761</v>
+        <v>32795</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>190</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="I11" s="7">
-        <v>52854</v>
+        <v>29575</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>17</v>
+        <v>194</v>
       </c>
       <c r="M11" s="7">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="N11" s="7">
-        <v>102615</v>
+        <v>62371</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>17</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,153 +3459,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D12" s="7">
-        <v>49761</v>
+        <v>33948</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="I12" s="7">
-        <v>53418</v>
+        <v>32374</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="N12" s="7">
-        <v>103179</v>
+        <v>66323</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>2799</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>1153</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="M13" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>3952</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>196</v>
+        <v>14</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D14" s="7">
-        <v>29575</v>
+        <v>43106</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="H14" s="7">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I14" s="7">
-        <v>32795</v>
+        <v>37270</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>200</v>
+        <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M14" s="7">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="N14" s="7">
-        <v>62371</v>
+        <v>80376</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>202</v>
+        <v>21</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>203</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>204</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,153 +3614,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D15" s="7">
-        <v>32374</v>
+        <v>43106</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I15" s="7">
-        <v>33948</v>
+        <v>37270</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="N15" s="7">
-        <v>66323</v>
+        <v>80376</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>2277</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>204</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>205</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>2799</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>207</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>208</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>5075</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>52</v>
+        <v>241</v>
       </c>
       <c r="D17" s="7">
-        <v>37270</v>
+        <v>160259</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>213</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>215</v>
       </c>
       <c r="H17" s="7">
-        <v>59</v>
+        <v>211</v>
       </c>
       <c r="I17" s="7">
-        <v>43106</v>
+        <v>145326</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>218</v>
       </c>
       <c r="M17" s="7">
-        <v>111</v>
+        <v>452</v>
       </c>
       <c r="N17" s="7">
-        <v>80376</v>
+        <v>305586</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>17</v>
+        <v>219</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>19</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4102,217 +3769,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>52</v>
+        <v>245</v>
       </c>
       <c r="D18" s="7">
-        <v>37270</v>
+        <v>162536</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
-        <v>59</v>
+        <v>215</v>
       </c>
       <c r="I18" s="7">
-        <v>43106</v>
+        <v>148125</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
-        <v>111</v>
+        <v>460</v>
       </c>
       <c r="N18" s="7">
-        <v>80376</v>
+        <v>310661</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>4</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2799</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H19" s="7">
-        <v>4</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2277</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="M19" s="7">
-        <v>8</v>
-      </c>
-      <c r="N19" s="7">
-        <v>5075</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>211</v>
-      </c>
-      <c r="D20" s="7">
-        <v>145326</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H20" s="7">
-        <v>241</v>
-      </c>
-      <c r="I20" s="7">
-        <v>160259</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="M20" s="7">
-        <v>452</v>
-      </c>
-      <c r="N20" s="7">
-        <v>305586</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>215</v>
-      </c>
-      <c r="D21" s="7">
-        <v>148125</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>245</v>
-      </c>
-      <c r="I21" s="7">
-        <v>162536</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>460</v>
-      </c>
-      <c r="N21" s="7">
-        <v>310661</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>94</v>
+      <c r="A19" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
